--- a/high_quality_PSNR_50.xlsx
+++ b/high_quality_PSNR_50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuche\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\jqwqj\image_compressor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DACDF4D-A9B0-4584-AB38-6CFA7E876744}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F66956-5E71-4047-B162-B13E749E1FF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5520" xr2:uid="{15945A02-DD3B-4BF1-A5B0-E7871A6C90D4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>block_size (8)</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>High Quality (PSNR = 50)</t>
+  </si>
+  <si>
+    <t>file_size(bytes)</t>
   </si>
 </sst>
 </file>
@@ -140,10 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -491,26 +494,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676F292C-0976-4261-9F9B-990AF22A165E}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -522,274 +526,297 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C4" s="1">
         <v>386</v>
       </c>
-      <c r="C4" s="3">
-        <f>B4/256</f>
+      <c r="D4" s="2">
+        <f>C4/256</f>
         <v>1.5078125</v>
       </c>
-      <c r="D4" s="3">
-        <f>B4/317</f>
+      <c r="E4" s="2">
+        <f>C4/317</f>
         <v>1.2176656151419558</v>
       </c>
-      <c r="E4" s="3">
-        <f>B4/357</f>
+      <c r="F4" s="2">
+        <f>C4/357</f>
         <v>1.0812324929971988</v>
       </c>
-      <c r="F4" s="3">
-        <f>B4/319</f>
+      <c r="G4" s="2">
+        <f>C4/319</f>
         <v>1.2100313479623825</v>
       </c>
-      <c r="G4" s="3">
-        <f>B4/317</f>
+      <c r="H4" s="2">
+        <f>C4/317</f>
         <v>1.2176656151419558</v>
       </c>
-      <c r="H4" s="3">
-        <f>B4/356</f>
+      <c r="I4" s="2">
+        <f>C4/356</f>
         <v>1.0842696629213484</v>
       </c>
-      <c r="I4" s="3">
-        <f>B4/319</f>
+      <c r="J4" s="2">
+        <f>C4/319</f>
         <v>1.2100313479623825</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C5" s="1">
         <v>386</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="2">
         <f>386 / 177</f>
         <v>2.1807909604519775</v>
       </c>
-      <c r="D5" s="3">
-        <f>B5/231</f>
+      <c r="E5" s="2">
+        <f>C5/231</f>
         <v>1.670995670995671</v>
       </c>
-      <c r="E5" s="3">
-        <f>B5/265</f>
+      <c r="F5" s="2">
+        <f>C5/265</f>
         <v>1.4566037735849056</v>
       </c>
-      <c r="F5" s="3">
-        <f>B5/236</f>
+      <c r="G5" s="2">
+        <f>C5/236</f>
         <v>1.6355932203389831</v>
       </c>
-      <c r="G5" s="3">
-        <f>B5/224</f>
+      <c r="H5" s="2">
+        <f>C5/224</f>
         <v>1.7232142857142858</v>
       </c>
-      <c r="H5" s="3">
-        <f>B5/259</f>
+      <c r="I5" s="2">
+        <f>C5/259</f>
         <v>1.4903474903474903</v>
       </c>
-      <c r="I5" s="3">
-        <f>B5/229</f>
+      <c r="J5" s="2">
+        <f>C5/229</f>
         <v>1.685589519650655</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C6" s="1">
         <v>386</v>
       </c>
-      <c r="C6" s="3">
-        <f>B6/177</f>
+      <c r="D6" s="2">
+        <f>C6/177</f>
         <v>2.1807909604519775</v>
       </c>
-      <c r="D6" s="3">
-        <f>B6/229</f>
+      <c r="E6" s="2">
+        <f>C6/229</f>
         <v>1.685589519650655</v>
       </c>
-      <c r="E6" s="3">
-        <f>B6/268</f>
+      <c r="F6" s="2">
+        <f>C6/268</f>
         <v>1.4402985074626866</v>
       </c>
-      <c r="F6" s="3">
-        <f>B6/237</f>
+      <c r="G6" s="2">
+        <f>C6/237</f>
         <v>1.628691983122363</v>
       </c>
-      <c r="G6" s="3">
-        <f>B6/229</f>
+      <c r="H6" s="2">
+        <f>C6/229</f>
         <v>1.685589519650655</v>
       </c>
-      <c r="H6" s="3">
-        <f>B6/264</f>
+      <c r="I6" s="2">
+        <f>C6/264</f>
         <v>1.4621212121212122</v>
       </c>
-      <c r="I6" s="3">
-        <f>B6/231</f>
+      <c r="J6" s="2">
+        <f>C6/231</f>
         <v>1.670995670995671</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C7" s="1">
         <v>386</v>
       </c>
-      <c r="C7" s="3">
-        <f xml:space="preserve"> B7/220</f>
+      <c r="D7" s="2">
+        <f xml:space="preserve"> C7/220</f>
         <v>1.7545454545454546</v>
       </c>
-      <c r="D7" s="3">
-        <f>B7/281</f>
+      <c r="E7" s="2">
+        <f>C7/281</f>
         <v>1.3736654804270463</v>
       </c>
-      <c r="E7" s="3">
-        <f>B7/316</f>
+      <c r="F7" s="2">
+        <f>C7/316</f>
         <v>1.2215189873417722</v>
       </c>
-      <c r="F7" s="3">
-        <f>B7/281</f>
+      <c r="G7" s="2">
+        <f>C7/281</f>
         <v>1.3736654804270463</v>
       </c>
-      <c r="G7" s="3">
-        <f>B7/277</f>
+      <c r="H7" s="2">
+        <f>C7/277</f>
         <v>1.3935018050541517</v>
       </c>
-      <c r="H7" s="3">
-        <f>B7/311</f>
+      <c r="I7" s="2">
+        <f>C7/311</f>
         <v>1.2411575562700965</v>
       </c>
-      <c r="I7" s="3">
-        <f>B7/276</f>
+      <c r="J7" s="2">
+        <f>C7/276</f>
         <v>1.3985507246376812</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C8" s="1">
         <v>386</v>
       </c>
-      <c r="C8" s="3">
-        <f>B8/205</f>
+      <c r="D8" s="2">
+        <f>C8/205</f>
         <v>1.8829268292682926</v>
       </c>
-      <c r="D8" s="3">
-        <f>B8/262</f>
+      <c r="E8" s="2">
+        <f>C8/262</f>
         <v>1.4732824427480915</v>
       </c>
-      <c r="E8" s="3">
-        <f>B8/293</f>
+      <c r="F8" s="2">
+        <f>C8/293</f>
         <v>1.31740614334471</v>
       </c>
-      <c r="F8" s="3">
-        <f>B8/269</f>
+      <c r="G8" s="2">
+        <f>C8/269</f>
         <v>1.4349442379182156</v>
       </c>
-      <c r="G8" s="3">
-        <f>B8/258</f>
+      <c r="H8" s="2">
+        <f>C8/258</f>
         <v>1.4961240310077519</v>
       </c>
-      <c r="H8" s="3">
-        <f>B8/290</f>
+      <c r="I8" s="2">
+        <f>C8/290</f>
         <v>1.3310344827586207</v>
       </c>
-      <c r="I8" s="3">
-        <f>B8/264</f>
+      <c r="J8" s="2">
+        <f>C8/264</f>
         <v>1.4621212121212122</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C9" s="1">
         <v>386</v>
       </c>
-      <c r="C9" s="3">
-        <f>B9/203</f>
+      <c r="D9" s="2">
+        <f>C9/203</f>
         <v>1.9014778325123152</v>
       </c>
-      <c r="D9" s="3">
-        <f>B9/262</f>
+      <c r="E9" s="2">
+        <f>C9/262</f>
         <v>1.4732824427480915</v>
       </c>
-      <c r="E9" s="3">
-        <f>B9/297</f>
+      <c r="F9" s="2">
+        <f>C9/297</f>
         <v>1.2996632996632997</v>
       </c>
-      <c r="F9" s="3">
-        <f>B9/264</f>
+      <c r="G9" s="2">
+        <f>C9/264</f>
         <v>1.4621212121212122</v>
       </c>
-      <c r="G9" s="3">
-        <f>B9/256</f>
+      <c r="H9" s="2">
+        <f>C9/256</f>
         <v>1.5078125</v>
       </c>
-      <c r="H9" s="3">
-        <f>B9/291</f>
+      <c r="I9" s="2">
+        <f>C9/291</f>
         <v>1.3264604810996563</v>
       </c>
-      <c r="I9" s="3">
-        <f>B9/258</f>
+      <c r="J9" s="2">
+        <f>C9/258</f>
         <v>1.4961240310077519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="12" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>